--- a/table.xlsx
+++ b/table.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -491,97 +491,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="str">
-        <v>SBMLExport</v>
-      </c>
-      <c r="C7" t="str">
-        <v>sbml</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="str">
-        <v>MrgsolveExport</v>
-      </c>
-      <c r="C8" t="str">
-        <v>mrg</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="str">
-        <v>SLVExport</v>
-      </c>
-      <c r="C9" t="str">
-        <v>slv</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="str">
-        <v>SimbioExport</v>
-      </c>
-      <c r="C10" t="str">
-        <v>simbio</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="str">
-        <v>JSONExport</v>
-      </c>
-      <c r="C11" t="str">
-        <v>json</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="str">
-        <v>YAMLExport</v>
-      </c>
-      <c r="C12" t="str">
-        <v>yaml</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="str">
-        <v>MatlabExport</v>
-      </c>
-      <c r="C13" t="str">
-        <v>matlab</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="str">
-        <v>XLSXExport</v>
-      </c>
-      <c r="C14" t="str">
-        <v>table</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/table.xlsx
+++ b/table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="nameless" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/table.xlsx
+++ b/table.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -406,7 +406,10 @@
         <v>actors</v>
       </c>
       <c r="I1" t="str">
-        <v>aux.reversible</v>
+        <v>output</v>
+      </c>
+      <c r="J1" t="str">
+        <v>reversible</v>
       </c>
     </row>
     <row r="2">
@@ -422,6 +425,9 @@
       <c r="E2" t="str">
         <v>1</v>
       </c>
+      <c r="I2" t="str">
+        <v>true</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -439,6 +445,9 @@
       <c r="G3" t="str">
         <v>comp1</v>
       </c>
+      <c r="I3" t="str">
+        <v>true</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -456,6 +465,9 @@
       <c r="G4" t="str">
         <v>comp1</v>
       </c>
+      <c r="I4" t="str">
+        <v>true</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -474,6 +486,9 @@
         <v>A = 2*B</v>
       </c>
       <c r="I5" t="str">
+        <v>true</v>
+      </c>
+      <c r="J5" t="str">
         <v>false</v>
       </c>
     </row>
@@ -493,7 +508,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/table.xlsx
+++ b/table.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,16 +417,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>Compartment</v>
+        <v>TimeScale</v>
       </c>
       <c r="C2" t="str">
-        <v>comp1</v>
-      </c>
-      <c r="E2" t="str">
-        <v>1</v>
-      </c>
-      <c r="I2" t="str">
-        <v>true</v>
+        <v>t</v>
       </c>
     </row>
     <row r="3">
@@ -434,16 +428,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <v>Species</v>
+        <v>Compartment</v>
       </c>
       <c r="C3" t="str">
-        <v>A</v>
+        <v>comp1</v>
       </c>
       <c r="E3" t="str">
-        <v>10</v>
-      </c>
-      <c r="G3" t="str">
-        <v>comp1</v>
+        <v>1</v>
       </c>
       <c r="I3" t="str">
         <v>true</v>
@@ -457,10 +448,10 @@
         <v>Species</v>
       </c>
       <c r="C4" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E4" t="str">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4" t="str">
         <v>comp1</v>
@@ -474,41 +465,61 @@
         <v>1</v>
       </c>
       <c r="B5" t="str">
-        <v>Reaction</v>
+        <v>Species</v>
       </c>
       <c r="C5" t="str">
-        <v>r1</v>
-      </c>
-      <c r="F5" t="str">
-        <v>k1 * A * comp1</v>
-      </c>
-      <c r="H5" t="str">
-        <v>A = 2*B</v>
+        <v>B</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <v>comp1</v>
       </c>
       <c r="I5" t="str">
         <v>true</v>
       </c>
-      <c r="J5" t="str">
-        <v>false</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="str">
+        <v>Reaction</v>
+      </c>
+      <c r="C6" t="str">
+        <v>r1</v>
+      </c>
+      <c r="F6" t="str">
+        <v>k1 * A * comp1</v>
+      </c>
+      <c r="H6" t="str">
+        <v>A = 2*B</v>
+      </c>
+      <c r="I6" t="str">
+        <v>true</v>
+      </c>
+      <c r="J6" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="str">
         <v>Const</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C7" t="str">
         <v>k1</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>0.12</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/table.xlsx
+++ b/table.xlsx
@@ -416,9 +416,6 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>TimeScale</v>
-      </c>
       <c r="C2" t="str">
         <v>t</v>
       </c>
